--- a/analisi/data/raw/TabellaTesiLivia.xlsx
+++ b/analisi/data/raw/TabellaTesiLivia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1301411F-1D24-417A-9DEA-FC31512ABB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA42CD2-0221-4B0E-B97A-11FA26DE8536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{5C1AFAEE-15D5-490A-AC81-703D254AB84E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="62">
   <si>
     <t>039bg161</t>
   </si>
@@ -46,9 +46,6 @@
     <t>044bg077</t>
   </si>
   <si>
-    <t>Saanen, Camosciata</t>
-  </si>
-  <si>
     <t>020bg032</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>046bg037</t>
   </si>
   <si>
-    <t>Saanen,Camosciata</t>
-  </si>
-  <si>
     <t>169bg041</t>
   </si>
   <si>
@@ -215,6 +209,9 @@
   </si>
   <si>
     <t>razza</t>
+  </si>
+  <si>
+    <t>Misto (Saanen, Camosciata)</t>
   </si>
 </sst>
 </file>
@@ -757,7 +754,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,28 +771,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -858,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>409</v>
@@ -873,13 +870,13 @@
         <v>182</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -900,12 +897,12 @@
         <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -931,13 +928,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <v>164</v>
@@ -952,12 +949,12 @@
         <v>67</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -983,13 +980,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>366</v>
@@ -1004,12 +1001,12 @@
         <v>241</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1035,13 +1032,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1">
         <v>248</v>
@@ -1056,12 +1053,12 @@
         <v>113</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1108,12 +1105,12 @@
         <v>73</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1134,12 +1131,12 @@
         <v>32</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -1160,12 +1157,12 @@
         <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -1191,13 +1188,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>209</v>
@@ -1212,15 +1209,15 @@
         <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1238,12 +1235,12 @@
         <v>26</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1264,12 +1261,12 @@
         <v>22</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1290,18 +1287,18 @@
         <v>157</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>44</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
@@ -1342,18 +1339,18 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1">
         <v>128</v>
@@ -1393,7 +1390,7 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="C1" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
@@ -1402,25 +1399,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1428,22 +1425,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1451,22 +1448,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1474,22 +1471,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1497,22 +1494,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,22 +1517,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,22 +1540,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1566,22 +1563,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,22 +1586,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1612,22 +1609,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,22 +1632,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1658,22 +1655,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1681,22 +1678,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1704,22 +1701,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,22 +1724,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,22 +1747,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1773,22 +1770,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1796,22 +1793,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,22 +1816,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1842,22 +1839,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1865,22 +1862,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1888,22 +1885,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1911,22 +1908,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1934,22 +1931,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,22 +1954,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1980,22 +1977,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2003,22 +2000,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,22 +2023,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2049,22 +2046,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2072,22 +2069,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,22 +2092,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2118,22 +2115,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2141,22 +2138,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2164,22 +2161,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2187,22 +2184,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2210,22 +2207,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2233,22 +2230,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2256,22 +2253,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2279,22 +2276,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2302,22 +2299,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2325,22 +2322,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,22 +2345,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2371,22 +2368,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2394,22 +2391,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2417,22 +2414,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,22 +2437,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2463,22 +2460,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2486,22 +2483,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2509,22 +2506,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2532,22 +2529,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2555,22 +2552,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2578,22 +2575,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,22 +2598,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2624,22 +2621,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2647,22 +2644,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2670,22 +2667,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2693,22 +2690,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2716,22 +2713,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2739,22 +2736,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2762,22 +2759,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2785,22 +2782,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2808,22 +2805,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2831,22 +2828,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2854,22 +2851,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2877,22 +2874,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2900,22 +2897,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2923,22 +2920,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2946,22 +2943,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2969,22 +2966,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2992,22 +2989,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3015,22 +3012,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3038,22 +3035,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3061,22 +3058,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3084,22 +3081,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3107,22 +3104,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3130,22 +3127,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3153,22 +3150,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3176,22 +3173,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3199,22 +3196,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3222,22 +3219,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3245,22 +3242,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3268,22 +3265,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3291,22 +3288,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3314,22 +3311,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3337,22 +3334,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3360,22 +3357,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3383,22 +3380,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3406,22 +3403,22 @@
         <v>87</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3429,22 +3426,22 @@
         <v>88</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3452,22 +3449,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3475,22 +3472,22 @@
         <v>90</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3498,22 +3495,22 @@
         <v>91</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3521,22 +3518,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/analisi/data/raw/TabellaTesiLivia.xlsx
+++ b/analisi/data/raw/TabellaTesiLivia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA42CD2-0221-4B0E-B97A-11FA26DE8536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC78240-94F6-4967-A1DE-6FE4A1E7037D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{5C1AFAEE-15D5-490A-AC81-703D254AB84E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="85">
   <si>
     <t>039bg161</t>
   </si>
@@ -212,6 +212,75 @@
   </si>
   <si>
     <t>Misto (Saanen, Camosciata)</t>
+  </si>
+  <si>
+    <t>BG1</t>
+  </si>
+  <si>
+    <t>BS2</t>
+  </si>
+  <si>
+    <t>BS4</t>
+  </si>
+  <si>
+    <t>BG2</t>
+  </si>
+  <si>
+    <t>BG7</t>
+  </si>
+  <si>
+    <t>VA3</t>
+  </si>
+  <si>
+    <t>VA1</t>
+  </si>
+  <si>
+    <t>VA2</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>BG6</t>
+  </si>
+  <si>
+    <t>BG4</t>
+  </si>
+  <si>
+    <t>BS1</t>
+  </si>
+  <si>
+    <t>BG5</t>
+  </si>
+  <si>
+    <t>MI1</t>
+  </si>
+  <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>BS5</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>VA4</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>allevix</t>
   </si>
 </sst>
 </file>
@@ -751,620 +820,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFACEA61-F01F-4DF0-B573-6DA8617CB6CE}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>81</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>81</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>91</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>91</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>409</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>178</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>49</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>182</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>62</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>24</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>35</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>42</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>42</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>164</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>92</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>67</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>62</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>62</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>366</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>26</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>241</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>106</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>106</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>248</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>120</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>15</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>113</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>113</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>113</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>108</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>31</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>73</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>79</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>44</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>32</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>92</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>72</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>16</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>39</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
         <v>39</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>209</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>166</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>9</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>34</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>38</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>26</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>79</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>49</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>8</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>22</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>209</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>40</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>157</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>44</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>44</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>35</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>14</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>128</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>64</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>8</v>
       </c>
-      <c r="G23" s="1">
-        <v>56</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="H23" s="1">
+        <v>56</v>
+      </c>
+      <c r="I23" s="8">
         <v>50</v>
       </c>
     </row>
